--- a/lib/tasks/qb.xlsx
+++ b/lib/tasks/qb.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>Rank</t>
   </si>
@@ -80,10 +80,10 @@
     <t>XP%</t>
   </si>
   <si>
-    <t>Petty</t>
-  </si>
-  <si>
-    <t>Bryce</t>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Seth</t>
   </si>
   <si>
     <t xml:space="preserve">Baylor                                            </t>
@@ -101,637 +101,751 @@
     <t xml:space="preserve">BYU                                               </t>
   </si>
   <si>
-    <t>Mariota</t>
-  </si>
-  <si>
-    <t>Marcus</t>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>Dak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi State                                 </t>
+  </si>
+  <si>
+    <t>Boykin</t>
+  </si>
+  <si>
+    <t>Trevone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCU                                               </t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Deshaun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemson                                           </t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Marquise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina                                    </t>
+  </si>
+  <si>
+    <t>Dobbs</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee                                         </t>
+  </si>
+  <si>
+    <t>Knighten</t>
+  </si>
+  <si>
+    <t>Fredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas State                                    </t>
+  </si>
+  <si>
+    <t>Mahomes</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Tech                                        </t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy                                              </t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auburn                                            </t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Green                                     </t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre Dame                                        </t>
+  </si>
+  <si>
+    <t>Hare</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Illinois                                 </t>
+  </si>
+  <si>
+    <t>Falk</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington State                                  </t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulsa                                             </t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Vernon</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon                                            </t>
   </si>
   <si>
-    <t>Fajardo</t>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati                                        </t>
+  </si>
+  <si>
+    <t>Doughty</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Kentucky                                  </t>
+  </si>
+  <si>
+    <t>Frohnapfel</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts                                     </t>
+  </si>
+  <si>
+    <t>Bercovici</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona State                                     </t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMU                                               </t>
+  </si>
+  <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis                                           </t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas A&amp;M                                         </t>
+  </si>
+  <si>
+    <t>Goff</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California                                        </t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska                                          </t>
+  </si>
+  <si>
+    <t>Ward Jr.</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston                                           </t>
+  </si>
+  <si>
+    <t>Sirk</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke                                              </t>
+  </si>
+  <si>
+    <t>Jaquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Atlantic                                  </t>
+  </si>
+  <si>
+    <t>Golson</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida State                                     </t>
+  </si>
+  <si>
+    <t>Kessler</t>
   </si>
   <si>
     <t>Cody</t>
   </si>
   <si>
-    <t xml:space="preserve">Nevada                                            </t>
-  </si>
-  <si>
-    <t>Carden</t>
-  </si>
-  <si>
-    <t>Shane</t>
+    <t xml:space="preserve">USC                                               </t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Sam B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa State                                        </t>
+  </si>
+  <si>
+    <t>Terrell</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Michigan                                  </t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas State                                       </t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona                                           </t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>P.J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple                                            </t>
+  </si>
+  <si>
+    <t>Keeton</t>
+  </si>
+  <si>
+    <t>Chuckie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah State                                        </t>
+  </si>
+  <si>
+    <t>Beathard</t>
+  </si>
+  <si>
+    <t>C.J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa                                              </t>
+  </si>
+  <si>
+    <t>Liufau</t>
+  </si>
+  <si>
+    <t>Sefo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado                                          </t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Skyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia                                     </t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appalachian State                                 </t>
+  </si>
+  <si>
+    <t>Mayfield</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma                                          </t>
+  </si>
+  <si>
+    <t>Bonnafon</t>
+  </si>
+  <si>
+    <t>Reggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville                                        </t>
+  </si>
+  <si>
+    <t>Benkert</t>
+  </si>
+  <si>
+    <t>Kurt</t>
   </si>
   <si>
     <t xml:space="preserve">East Carolina                                     </t>
   </si>
   <si>
-    <t>Hundley</t>
-  </si>
-  <si>
-    <t>Brett</t>
+    <t>Finley</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boise State                                       </t>
+  </si>
+  <si>
+    <t>Birdsong</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall                                          </t>
+  </si>
+  <si>
+    <t>Driskel</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana Tech                                    </t>
+  </si>
+  <si>
+    <t>Brissett</t>
+  </si>
+  <si>
+    <t>Jacoby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina State                              </t>
+  </si>
+  <si>
+    <t>Arbuckle</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia State                                     </t>
+  </si>
+  <si>
+    <t>Licata</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo                                           </t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma State                                    </t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi                                       </t>
+  </si>
+  <si>
+    <t>Hogan</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford                                          </t>
+  </si>
+  <si>
+    <t>Lunt</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois                                          </t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Tech                                      </t>
+  </si>
+  <si>
+    <t>Sudfeld</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana                                           </t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Quinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Florida                                     </t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Michigan                                  </t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah                                              </t>
+  </si>
+  <si>
+    <t>Wittek</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii                                            </t>
+  </si>
+  <si>
+    <t>Leidner</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNC Charlotte                                     </t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
+    <t>J.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio State                                        </t>
+  </si>
+  <si>
+    <t>Milas</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball State                                        </t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Driphus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice                                              </t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan State                                    </t>
+  </si>
+  <si>
+    <t>Hackenberg</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn State                                        </t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia                                          </t>
+  </si>
+  <si>
+    <t>Linehan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho                                             </t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico State                                  </t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Southern                                  </t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado State                                    </t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Michigan                                  </t>
+  </si>
+  <si>
+    <t>Haack</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana-Lafayette                               </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana-Monroe                                  </t>
+  </si>
+  <si>
+    <t>Grier</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida                                           </t>
+  </si>
+  <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming                                           </t>
+  </si>
+  <si>
+    <t>Rosen</t>
+  </si>
+  <si>
+    <t>Josh</t>
   </si>
   <si>
     <t xml:space="preserve">UCLA                                              </t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auburn                                            </t>
-  </si>
-  <si>
-    <t>Prescott</t>
-  </si>
-  <si>
-    <t>Dak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi State                                 </t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowling Green                                     </t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>C.J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland                                          </t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona State                                     </t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas A&amp;M                                         </t>
-  </si>
-  <si>
-    <t>Winston</t>
-  </si>
-  <si>
-    <t>Jameis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida State                                     </t>
-  </si>
-  <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>Keenan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navy                                              </t>
-  </si>
-  <si>
-    <t>Webb</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Tech                                        </t>
-  </si>
-  <si>
-    <t>Cato</t>
-  </si>
-  <si>
-    <t>Rakeem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall                                          </t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma                                          </t>
-  </si>
-  <si>
-    <t>Gardner</t>
-  </si>
-  <si>
-    <t>Devin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan                                          </t>
-  </si>
-  <si>
-    <t>Heinicke</t>
+    <t>Kaaya</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami                                             </t>
+  </si>
+  <si>
+    <t>Brewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech                                     </t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon State                                      </t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane                                            </t>
+  </si>
+  <si>
+    <t>Schurr</t>
+  </si>
+  <si>
+    <t>A.J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army                                              </t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego State                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas                                          </t>
+  </si>
+  <si>
+    <t>Romine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force                                         </t>
+  </si>
+  <si>
+    <t>Grammer</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Tenn. St                                   </t>
+  </si>
+  <si>
+    <t>Stockstill</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Woodside</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toledo                                            </t>
+  </si>
+  <si>
+    <t>Ely</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Cardale</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t xml:space="preserve">Old Dominion                                      </t>
   </si>
   <si>
-    <t>Keeton</t>
-  </si>
-  <si>
-    <t>Chuckie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah State                                        </t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Marquise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina                                    </t>
-  </si>
-  <si>
-    <t>Waters</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas State                                      </t>
-  </si>
-  <si>
-    <t>Walsh</t>
-  </si>
-  <si>
-    <t>J. W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma State                                    </t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Alabama                                     </t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah                                              </t>
-  </si>
-  <si>
-    <t>Goff</t>
-  </si>
-  <si>
-    <t>Jared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California                                        </t>
-  </si>
-  <si>
-    <t>Miles</t>
-  </si>
-  <si>
-    <t>Cyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington                                        </t>
-  </si>
-  <si>
-    <t>Broadway</t>
-  </si>
-  <si>
-    <t>Terrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisiana-Lafayette                               </t>
-  </si>
-  <si>
-    <t>Knighten</t>
-  </si>
-  <si>
-    <t>Fredi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas State                                    </t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>P.J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple                                            </t>
-  </si>
-  <si>
-    <t>Hedrick</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boise State                                       </t>
-  </si>
-  <si>
-    <t>Mauk</t>
-  </si>
-  <si>
-    <t>Maty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri                                          </t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>Bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi                                       </t>
-  </si>
-  <si>
-    <t>Connette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno State                                      </t>
-  </si>
-  <si>
-    <t>Jaquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Atlantic                                  </t>
-  </si>
-  <si>
-    <t>Stoudt</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clemson                                           </t>
-  </si>
-  <si>
-    <t>Kiel</t>
-  </si>
-  <si>
-    <t>Gunner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cincinnati                                        </t>
-  </si>
-  <si>
-    <t>Showers</t>
-  </si>
-  <si>
-    <t>Jamiell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTEP                                              </t>
-  </si>
-  <si>
-    <t>Hogan</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanford                                          </t>
-  </si>
-  <si>
-    <t>Halliday</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington State                                  </t>
-  </si>
-  <si>
-    <t>Sudfeld</t>
-  </si>
-  <si>
-    <t>Nate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana                                           </t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Terrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse                                          </t>
-  </si>
-  <si>
-    <t>Hackenberg</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn State                                        </t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas                                             </t>
-  </si>
-  <si>
-    <t>Driskel</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida                                           </t>
-  </si>
-  <si>
-    <t>O'Korn</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston                                           </t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville                                        </t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Tech                                      </t>
-  </si>
-  <si>
-    <t>Golson</t>
-  </si>
-  <si>
-    <t>Everett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notre Dame                                        </t>
-  </si>
-  <si>
-    <t>Brissett</t>
-  </si>
-  <si>
-    <t>Jacoby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina State                              </t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Driphus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice                                              </t>
-  </si>
-  <si>
-    <t>Armstrong</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska                                          </t>
-  </si>
-  <si>
-    <t>Rudock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa                                              </t>
-  </si>
-  <si>
-    <t>Reardon</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent                                              </t>
-  </si>
-  <si>
-    <t>Grayson</t>
-  </si>
-  <si>
-    <t>Garrett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado State                                    </t>
-  </si>
-  <si>
-    <t>Rohach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa State                                        </t>
-  </si>
-  <si>
-    <t>Barrett</t>
-  </si>
-  <si>
-    <t>J.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio State                                        </t>
-  </si>
-  <si>
-    <t>Mannion</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon State                                      </t>
-  </si>
-  <si>
-    <t>Leidner</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota                                         </t>
-  </si>
-  <si>
-    <t>Kaehler</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego State                                   </t>
-  </si>
-  <si>
-    <t>Pohl</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron                                             </t>
-  </si>
-  <si>
-    <t>Lynch</t>
-  </si>
-  <si>
-    <t>Paxton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis                                           </t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan State                                    </t>
-  </si>
-  <si>
-    <t>Frohnapfel</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts                                     </t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Hutson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia                                           </t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina                                    </t>
-  </si>
-  <si>
-    <t>Ely</t>
-  </si>
-  <si>
-    <t>Phillip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo                                            </t>
-  </si>
-  <si>
-    <t>Arbuckle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia State                                     </t>
-  </si>
-  <si>
-    <t>Liufau</t>
-  </si>
-  <si>
-    <t>Sefo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado                                          </t>
-  </si>
-  <si>
-    <t>Cochran</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UConn                                             </t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duke                                              </t>
-  </si>
-  <si>
-    <t>Trickett</t>
-  </si>
-  <si>
-    <t>Clint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Virginia                                     </t>
-  </si>
-  <si>
-    <t>Kessler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC                                               </t>
-  </si>
-  <si>
-    <t>Rush</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Michigan                                  </t>
-  </si>
-  <si>
-    <t>Etling</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue                                            </t>
-  </si>
-  <si>
-    <t>Jurich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose State                                    </t>
+    <t>Kern</t>
   </si>
   <si>
     <t>Coker</t>
@@ -743,124 +857,7 @@
     <t xml:space="preserve">Alabama                                           </t>
   </si>
   <si>
-    <t>Licata</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo                                           </t>
-  </si>
-  <si>
-    <t>Doughty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Kentucky                                  </t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Ozzie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ball State                                        </t>
-  </si>
-  <si>
-    <t>Towles</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky                                          </t>
-  </si>
-  <si>
-    <t>Roback</t>
-  </si>
-  <si>
-    <t>Brogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Michigan                                  </t>
-  </si>
-  <si>
-    <t>McEvoy</t>
-  </si>
-  <si>
-    <t>Tanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin                                         </t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army                                              </t>
-  </si>
-  <si>
-    <t>Jennings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSU                                               </t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMU                                               </t>
-  </si>
-  <si>
-    <t>Watson</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Tidwell</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy State                                        </t>
-  </si>
-  <si>
-    <t>Fishback</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Holman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Florida                                   </t>
-  </si>
-  <si>
-    <t>Barker</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Braxton</t>
+    <t>Cornwell</t>
   </si>
 </sst>
 </file>
@@ -869,10 +866,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="60" formatCode="#,##0.0"/>
+    <numFmt numFmtId="59" formatCode="#,##0.0"/>
+    <numFmt numFmtId="60" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -884,17 +881,12 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -941,24 +933,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2210,7 +2202,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2326,28 +2318,28 @@
         <v>25</v>
       </c>
       <c r="F2" s="3">
-        <v>358</v>
-      </c>
-      <c r="G2" s="4">
-        <v>32.5454545</v>
+        <v>418</v>
+      </c>
+      <c r="G2" s="3">
+        <v>38</v>
       </c>
       <c r="H2" s="3">
         <v>11</v>
       </c>
       <c r="I2" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3">
         <v>9</v>
       </c>
       <c r="L2" s="3">
-        <v>3577</v>
+        <v>3981</v>
       </c>
       <c r="M2" s="3">
-        <v>208</v>
+        <v>515</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
@@ -2364,7 +2356,7 @@
       <c r="R2" s="3">
         <v>0</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>0</v>
       </c>
       <c r="T2" s="3">
@@ -2373,7 +2365,7 @@
       <c r="U2" s="3">
         <v>0</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2394,28 +2386,28 @@
         <v>25</v>
       </c>
       <c r="F3" s="3">
-        <v>352</v>
-      </c>
-      <c r="G3" s="3">
-        <v>32</v>
+        <v>337</v>
+      </c>
+      <c r="G3" s="5">
+        <v>33.7</v>
       </c>
       <c r="H3" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3">
-        <v>2639</v>
+        <v>2691</v>
       </c>
       <c r="M3" s="3">
-        <v>1077</v>
+        <v>994</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -2432,7 +2424,7 @@
       <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>0</v>
       </c>
       <c r="T3" s="3">
@@ -2441,7 +2433,7 @@
       <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2462,28 +2454,28 @@
         <v>25</v>
       </c>
       <c r="F4" s="3">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="G4" s="6">
-        <v>31.5</v>
+        <v>33.3333333</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L4" s="3">
-        <v>3078</v>
+        <v>3166</v>
       </c>
       <c r="M4" s="3">
-        <v>679</v>
+        <v>845</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -2500,7 +2492,7 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>0</v>
       </c>
       <c r="T4" s="3">
@@ -2509,7 +2501,7 @@
       <c r="U4" s="3">
         <v>0</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2530,28 +2522,28 @@
         <v>25</v>
       </c>
       <c r="F5" s="3">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="G5" s="6">
-        <v>30.9</v>
+        <v>33.1666666</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3">
-        <v>2477</v>
+        <v>3726</v>
       </c>
       <c r="M5" s="3">
-        <v>726</v>
+        <v>621</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -2568,7 +2560,7 @@
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="3">
@@ -2577,7 +2569,7 @@
       <c r="U5" s="3">
         <v>0</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2598,28 +2590,28 @@
         <v>25</v>
       </c>
       <c r="F6" s="3">
-        <v>334</v>
-      </c>
-      <c r="G6" s="4">
-        <v>30.3636363</v>
+        <v>356</v>
+      </c>
+      <c r="G6" s="6">
+        <v>32.3636363</v>
       </c>
       <c r="H6" s="3">
         <v>11</v>
       </c>
       <c r="I6" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>3701</v>
+        <v>3789</v>
       </c>
       <c r="M6" s="3">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -2636,7 +2628,7 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="3">
@@ -2645,7 +2637,7 @@
       <c r="U6" s="3">
         <v>0</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2666,28 +2658,28 @@
         <v>25</v>
       </c>
       <c r="F7" s="3">
-        <v>362</v>
-      </c>
-      <c r="G7" s="4">
-        <v>30.1666666</v>
+        <v>380</v>
+      </c>
+      <c r="G7" s="6">
+        <v>31.6666666</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3">
-        <v>3192</v>
+        <v>3050</v>
       </c>
       <c r="M7" s="3">
-        <v>618</v>
+        <v>800</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -2704,7 +2696,7 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="3">
@@ -2713,7 +2705,7 @@
       <c r="U7" s="3">
         <v>0</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2734,28 +2726,28 @@
         <v>25</v>
       </c>
       <c r="F8" s="3">
-        <v>324</v>
-      </c>
-      <c r="G8" s="4">
-        <v>29.4545454</v>
+        <v>376</v>
+      </c>
+      <c r="G8" s="6">
+        <v>31.3333333</v>
       </c>
       <c r="H8" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L8" s="3">
-        <v>2072</v>
+        <v>3047</v>
       </c>
       <c r="M8" s="3">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2772,7 +2764,7 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="3">
@@ -2781,7 +2773,7 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2802,28 +2794,28 @@
         <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>353</v>
-      </c>
-      <c r="G9" s="4">
-        <v>29.4166666</v>
+        <v>371</v>
+      </c>
+      <c r="G9" s="6">
+        <v>30.9166666</v>
       </c>
       <c r="H9" s="3">
         <v>12</v>
       </c>
       <c r="I9" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L9" s="3">
-        <v>2509</v>
+        <v>2974</v>
       </c>
       <c r="M9" s="3">
-        <v>844</v>
+        <v>678</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2840,7 +2832,7 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -2849,7 +2841,7 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2870,28 +2862,28 @@
         <v>25</v>
       </c>
       <c r="F10" s="3">
-        <v>353</v>
-      </c>
-      <c r="G10" s="4">
-        <v>29.4166666</v>
+        <v>367</v>
+      </c>
+      <c r="G10" s="6">
+        <v>30.5833333</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K10" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L10" s="3">
-        <v>3688</v>
+        <v>4214</v>
       </c>
       <c r="M10" s="3">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -2908,7 +2900,7 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>0</v>
       </c>
       <c r="T10" s="3">
@@ -2917,7 +2909,7 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2938,28 +2930,28 @@
         <v>25</v>
       </c>
       <c r="F11" s="3">
-        <v>293</v>
-      </c>
-      <c r="G11" s="6">
-        <v>29.3</v>
+        <v>297</v>
+      </c>
+      <c r="G11" s="5">
+        <v>29.7</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
       <c r="I11" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3">
-        <v>2278</v>
+        <v>954</v>
       </c>
       <c r="M11" s="3">
-        <v>685</v>
+        <v>1003</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2976,7 +2968,7 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>0</v>
       </c>
       <c r="T11" s="3">
@@ -2985,7 +2977,7 @@
       <c r="U11" s="3">
         <v>0</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3006,28 +2998,28 @@
         <v>25</v>
       </c>
       <c r="F12" s="3">
-        <v>350</v>
-      </c>
-      <c r="G12" s="4">
-        <v>29.1666666</v>
+        <v>355</v>
+      </c>
+      <c r="G12" s="6">
+        <v>29.5833333</v>
       </c>
       <c r="H12" s="3">
         <v>12</v>
       </c>
       <c r="I12" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L12" s="3">
-        <v>3413</v>
+        <v>3038</v>
       </c>
       <c r="M12" s="3">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -3044,7 +3036,7 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>0</v>
       </c>
       <c r="T12" s="3">
@@ -3053,7 +3045,7 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3062,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>56</v>
@@ -3074,28 +3066,28 @@
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <v>350</v>
-      </c>
-      <c r="G13" s="4">
-        <v>29.1666666</v>
+        <v>348</v>
+      </c>
+      <c r="G13" s="3">
+        <v>29</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
       </c>
       <c r="I13" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>3522</v>
+        <v>3934</v>
       </c>
       <c r="M13" s="3">
-        <v>620</v>
+        <v>243</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -3112,7 +3104,7 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <v>0</v>
       </c>
       <c r="T13" s="3">
@@ -3121,7 +3113,7 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3142,28 +3134,28 @@
         <v>25</v>
       </c>
       <c r="F14" s="3">
-        <v>349</v>
-      </c>
-      <c r="G14" s="4">
-        <v>29.0833333</v>
+        <v>348</v>
+      </c>
+      <c r="G14" s="3">
+        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>12</v>
       </c>
       <c r="I14" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K14" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L14" s="3">
-        <v>3464</v>
+        <v>3288</v>
       </c>
       <c r="M14" s="3">
-        <v>241</v>
+        <v>521</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -3180,7 +3172,7 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>0</v>
       </c>
       <c r="T14" s="3">
@@ -3189,7 +3181,7 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3210,28 +3202,28 @@
         <v>25</v>
       </c>
       <c r="F15" s="3">
-        <v>289</v>
-      </c>
-      <c r="G15" s="6">
-        <v>28.9</v>
+        <v>348</v>
+      </c>
+      <c r="G15" s="3">
+        <v>29</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L15" s="3">
-        <v>861</v>
+        <v>2532</v>
       </c>
       <c r="M15" s="3">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3248,7 +3240,7 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <v>0</v>
       </c>
       <c r="T15" s="3">
@@ -3257,7 +3249,7 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3278,28 +3270,28 @@
         <v>25</v>
       </c>
       <c r="F16" s="3">
-        <v>345</v>
-      </c>
-      <c r="G16" s="7">
-        <v>28.75</v>
+        <v>346</v>
+      </c>
+      <c r="G16" s="6">
+        <v>28.8333333</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J16" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>4660</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
+        <v>4754</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-98</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -3316,7 +3308,7 @@
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>0</v>
       </c>
       <c r="T16" s="3">
@@ -3325,7 +3317,7 @@
       <c r="U16" s="3">
         <v>0</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3346,28 +3338,28 @@
         <v>25</v>
       </c>
       <c r="F17" s="3">
-        <v>340</v>
-      </c>
-      <c r="G17" s="4">
-        <v>28.3333333</v>
+        <v>346</v>
+      </c>
+      <c r="G17" s="6">
+        <v>28.8333333</v>
       </c>
       <c r="H17" s="3">
         <v>12</v>
       </c>
       <c r="I17" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J17" s="3">
+        <v>9</v>
+      </c>
+      <c r="K17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
-        <v>4</v>
-      </c>
       <c r="L17" s="3">
-        <v>3589</v>
+        <v>3888</v>
       </c>
       <c r="M17" s="3">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -3384,7 +3376,7 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>0</v>
       </c>
       <c r="T17" s="3">
@@ -3393,7 +3385,7 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3414,28 +3406,28 @@
         <v>25</v>
       </c>
       <c r="F18" s="3">
-        <v>310</v>
-      </c>
-      <c r="G18" s="4">
-        <v>28.1818181</v>
+        <v>345</v>
+      </c>
+      <c r="G18" s="7">
+        <v>28.75</v>
       </c>
       <c r="H18" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J18" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" s="3">
-        <v>2903</v>
+        <v>3118</v>
       </c>
       <c r="M18" s="3">
-        <v>615</v>
+        <v>425</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3452,7 +3444,7 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>0</v>
       </c>
       <c r="T18" s="3">
@@ -3461,7 +3453,7 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3482,28 +3474,28 @@
         <v>25</v>
       </c>
       <c r="F19" s="3">
-        <v>331</v>
-      </c>
-      <c r="G19" s="4">
-        <v>27.5833333</v>
+        <v>344</v>
+      </c>
+      <c r="G19" s="6">
+        <v>28.6666666</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
-        <v>2744</v>
+        <v>3822</v>
       </c>
       <c r="M19" s="3">
-        <v>588</v>
+        <v>194</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -3520,7 +3512,7 @@
       <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <v>0</v>
       </c>
       <c r="T19" s="3">
@@ -3529,7 +3521,7 @@
       <c r="U19" s="3">
         <v>0</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3541,37 +3533,37 @@
         <v>76</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F20" s="3">
-        <v>327</v>
-      </c>
-      <c r="G20" s="7">
-        <v>27.25</v>
+        <v>343</v>
+      </c>
+      <c r="G20" s="6">
+        <v>28.5833333</v>
       </c>
       <c r="H20" s="3">
         <v>12</v>
       </c>
       <c r="I20" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J20" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>3666</v>
-      </c>
-      <c r="M20" s="3">
-        <v>267</v>
+        <v>4184</v>
+      </c>
+      <c r="M20" s="4">
+        <v>-43</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -3588,7 +3580,7 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>0</v>
       </c>
       <c r="T20" s="3">
@@ -3597,7 +3589,7 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3606,40 +3598,40 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F21" s="3">
-        <v>326</v>
-      </c>
-      <c r="G21" s="4">
-        <v>27.1666666</v>
+        <v>342</v>
+      </c>
+      <c r="G21" s="5">
+        <v>28.5</v>
       </c>
       <c r="H21" s="3">
         <v>12</v>
       </c>
       <c r="I21" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>3420</v>
+        <v>4188</v>
       </c>
       <c r="M21" s="3">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -3656,7 +3648,7 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -3665,7 +3657,7 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3674,40 +3666,40 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F22" s="3">
-        <v>319</v>
-      </c>
-      <c r="G22" s="4">
-        <v>26.5833333</v>
+        <v>332</v>
+      </c>
+      <c r="G22" s="6">
+        <v>27.6666666</v>
       </c>
       <c r="H22" s="3">
         <v>12</v>
       </c>
       <c r="I22" s="3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J22" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>2889</v>
+        <v>4029</v>
       </c>
       <c r="M22" s="3">
-        <v>630</v>
+        <v>117</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -3724,7 +3716,7 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>0</v>
       </c>
       <c r="T22" s="3">
@@ -3733,7 +3725,7 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3742,10 +3734,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>86</v>
@@ -3754,28 +3746,28 @@
         <v>25</v>
       </c>
       <c r="F23" s="3">
-        <v>292</v>
-      </c>
-      <c r="G23" s="4">
-        <v>26.5454545</v>
+        <v>330</v>
+      </c>
+      <c r="G23" s="5">
+        <v>27.5</v>
       </c>
       <c r="H23" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="3">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3">
         <v>7</v>
       </c>
-      <c r="K23" s="3">
-        <v>8</v>
-      </c>
       <c r="L23" s="3">
-        <v>2698</v>
+        <v>2771</v>
       </c>
       <c r="M23" s="3">
-        <v>360</v>
+        <v>909</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -3792,7 +3784,7 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
         <v>0</v>
       </c>
       <c r="T23" s="3">
@@ -3801,7 +3793,7 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3822,28 +3814,28 @@
         <v>25</v>
       </c>
       <c r="F24" s="3">
-        <v>290</v>
-      </c>
-      <c r="G24" s="4">
-        <v>26.3636363</v>
+        <v>330</v>
+      </c>
+      <c r="G24" s="5">
+        <v>27.5</v>
       </c>
       <c r="H24" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J24" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K24" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" s="3">
-        <v>2808</v>
+        <v>2983</v>
       </c>
       <c r="M24" s="3">
-        <v>469</v>
+        <v>371</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -3860,7 +3852,7 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="4">
         <v>0</v>
       </c>
       <c r="T24" s="3">
@@ -3869,7 +3861,7 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3890,28 +3882,28 @@
         <v>25</v>
       </c>
       <c r="F25" s="3">
-        <v>312</v>
-      </c>
-      <c r="G25" s="3">
-        <v>26</v>
+        <v>329</v>
+      </c>
+      <c r="G25" s="6">
+        <v>27.4166666</v>
       </c>
       <c r="H25" s="3">
         <v>12</v>
       </c>
       <c r="I25" s="3">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J25" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
-        <v>2589</v>
+        <v>3792</v>
       </c>
       <c r="M25" s="3">
-        <v>736</v>
+        <v>84</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -3928,7 +3920,7 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -3937,7 +3929,7 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3958,28 +3950,28 @@
         <v>25</v>
       </c>
       <c r="F26" s="3">
-        <v>260</v>
-      </c>
-      <c r="G26" s="3">
-        <v>26</v>
+        <v>320</v>
+      </c>
+      <c r="G26" s="6">
+        <v>26.6666666</v>
       </c>
       <c r="H26" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26" s="3">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J26" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K26" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>2539</v>
-      </c>
-      <c r="M26" s="3">
-        <v>486</v>
+        <v>4137</v>
+      </c>
+      <c r="M26" s="4">
+        <v>-23</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -3996,7 +3988,7 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="4">
         <v>0</v>
       </c>
       <c r="T26" s="3">
@@ -4005,7 +3997,7 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4026,28 +4018,28 @@
         <v>25</v>
       </c>
       <c r="F27" s="3">
-        <v>308</v>
-      </c>
-      <c r="G27" s="4">
-        <v>25.6666666</v>
+        <v>316</v>
+      </c>
+      <c r="G27" s="6">
+        <v>26.3333333</v>
       </c>
       <c r="H27" s="3">
         <v>12</v>
       </c>
       <c r="I27" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J27" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L27" s="3">
-        <v>4222</v>
-      </c>
-      <c r="M27" s="5">
-        <v>-33</v>
+        <v>3129</v>
+      </c>
+      <c r="M27" s="3">
+        <v>489</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -4064,7 +4056,7 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="4">
         <v>0</v>
       </c>
       <c r="T27" s="3">
@@ -4073,7 +4065,7 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4094,28 +4086,28 @@
         <v>25</v>
       </c>
       <c r="F28" s="3">
-        <v>305</v>
-      </c>
-      <c r="G28" s="4">
-        <v>25.4166666</v>
+        <v>315</v>
+      </c>
+      <c r="G28" s="7">
+        <v>26.25</v>
       </c>
       <c r="H28" s="3">
         <v>12</v>
       </c>
       <c r="I28" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3">
         <v>9</v>
       </c>
-      <c r="K28" s="3">
-        <v>6</v>
-      </c>
       <c r="L28" s="3">
-        <v>2810</v>
+        <v>2579</v>
       </c>
       <c r="M28" s="3">
-        <v>550</v>
+        <v>672</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -4132,7 +4124,7 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>0</v>
       </c>
       <c r="T28" s="3">
@@ -4141,7 +4133,7 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4162,28 +4154,28 @@
         <v>25</v>
       </c>
       <c r="F29" s="3">
-        <v>279</v>
-      </c>
-      <c r="G29" s="4">
-        <v>25.3636363</v>
+        <v>310</v>
+      </c>
+      <c r="G29" s="6">
+        <v>25.8333333</v>
       </c>
       <c r="H29" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L29" s="3">
-        <v>2341</v>
+        <v>2780</v>
       </c>
       <c r="M29" s="3">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -4200,7 +4192,7 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
         <v>0</v>
       </c>
       <c r="T29" s="3">
@@ -4209,7 +4201,7 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4218,40 +4210,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="D30" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="D30" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="E30" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F30" s="3">
-        <v>304</v>
-      </c>
-      <c r="G30" s="4">
-        <v>25.3333333</v>
+        <v>283</v>
+      </c>
+      <c r="G30" s="6">
+        <v>25.7272727</v>
       </c>
       <c r="H30" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K30" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L30" s="3">
-        <v>2383</v>
+        <v>2471</v>
       </c>
       <c r="M30" s="3">
-        <v>675</v>
+        <v>540</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -4268,7 +4260,7 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="4">
         <v>0</v>
       </c>
       <c r="T30" s="3">
@@ -4277,7 +4269,7 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4286,40 +4278,40 @@
         <v>30</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="D31" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D31" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="E31" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F31" s="3">
-        <v>278</v>
-      </c>
-      <c r="G31" s="4">
-        <v>25.2727272</v>
+        <v>307</v>
+      </c>
+      <c r="G31" s="6">
+        <v>25.5833333</v>
       </c>
       <c r="H31" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J31" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31" s="3">
-        <v>2850</v>
+        <v>3198</v>
       </c>
       <c r="M31" s="3">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -4336,7 +4328,7 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
         <v>0</v>
       </c>
       <c r="T31" s="3">
@@ -4345,7 +4337,7 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4354,40 +4346,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="D32" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="E32" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F32" s="3">
-        <v>302</v>
-      </c>
-      <c r="G32" s="4">
-        <v>25.1666666</v>
+        <v>307</v>
+      </c>
+      <c r="G32" s="6">
+        <v>25.5833333</v>
       </c>
       <c r="H32" s="3">
         <v>12</v>
       </c>
       <c r="I32" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J32" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3">
-        <v>2912</v>
-      </c>
-      <c r="M32" s="3">
-        <v>393</v>
+        <v>3752</v>
+      </c>
+      <c r="M32" s="4">
+        <v>-88</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -4404,7 +4396,7 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="4">
         <v>0</v>
       </c>
       <c r="T32" s="3">
@@ -4413,7 +4405,7 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4422,40 +4414,40 @@
         <v>32</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="D33" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="D33" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="E33" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F33" s="3">
-        <v>299</v>
-      </c>
-      <c r="G33" s="4">
-        <v>24.9166666</v>
+        <v>306</v>
+      </c>
+      <c r="G33" s="5">
+        <v>25.5</v>
       </c>
       <c r="H33" s="3">
         <v>12</v>
       </c>
       <c r="I33" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J33" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="3">
-        <v>3044</v>
+        <v>3432</v>
       </c>
       <c r="M33" s="3">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -4472,7 +4464,7 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="4">
         <v>0</v>
       </c>
       <c r="T33" s="3">
@@ -4481,7 +4473,7 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4490,40 +4482,40 @@
         <v>33</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="D34" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D34" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="E34" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F34" s="3">
-        <v>298</v>
-      </c>
-      <c r="G34" s="4">
-        <v>24.8333333</v>
+        <v>304</v>
+      </c>
+      <c r="G34" s="6">
+        <v>25.3333333</v>
       </c>
       <c r="H34" s="3">
         <v>12</v>
       </c>
       <c r="I34" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J34" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K34" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L34" s="3">
-        <v>3211</v>
+        <v>3284</v>
       </c>
       <c r="M34" s="3">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -4540,7 +4532,7 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <v>0</v>
       </c>
       <c r="T34" s="3">
@@ -4549,7 +4541,7 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4558,10 +4550,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>121</v>
@@ -4570,28 +4562,28 @@
         <v>25</v>
       </c>
       <c r="F35" s="3">
-        <v>297</v>
-      </c>
-      <c r="G35" s="7">
-        <v>24.75</v>
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>25</v>
       </c>
       <c r="H35" s="3">
         <v>12</v>
       </c>
       <c r="I35" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J35" s="3">
         <v>9</v>
       </c>
       <c r="K35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L35" s="3">
-        <v>2844</v>
+        <v>2717</v>
       </c>
       <c r="M35" s="3">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -4608,7 +4600,7 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="4">
         <v>0</v>
       </c>
       <c r="T35" s="3">
@@ -4617,7 +4609,7 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4626,40 +4618,40 @@
         <v>35</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F36" s="3">
-        <v>270</v>
-      </c>
-      <c r="G36" s="4">
-        <v>24.5454545</v>
+        <v>300</v>
+      </c>
+      <c r="G36" s="3">
+        <v>25</v>
       </c>
       <c r="H36" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J36" s="3">
         <v>10</v>
       </c>
       <c r="K36" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L36" s="3">
-        <v>2071</v>
+        <v>3357</v>
       </c>
       <c r="M36" s="3">
-        <v>715</v>
+        <v>314</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -4676,7 +4668,7 @@
       <c r="R36" s="3">
         <v>0</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="4">
         <v>0</v>
       </c>
       <c r="T36" s="3">
@@ -4685,7 +4677,7 @@
       <c r="U36" s="3">
         <v>0</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4694,40 +4686,40 @@
         <v>36</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F37" s="3">
-        <v>293</v>
-      </c>
-      <c r="G37" s="4">
-        <v>24.4166666</v>
+        <v>298</v>
+      </c>
+      <c r="G37" s="6">
+        <v>24.8333333</v>
       </c>
       <c r="H37" s="3">
         <v>12</v>
       </c>
       <c r="I37" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J37" s="3">
         <v>10</v>
       </c>
       <c r="K37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3">
-        <v>3101</v>
+        <v>3266</v>
       </c>
       <c r="M37" s="3">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -4744,7 +4736,7 @@
       <c r="R37" s="3">
         <v>0</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="4">
         <v>0</v>
       </c>
       <c r="T37" s="3">
@@ -4753,7 +4745,7 @@
       <c r="U37" s="3">
         <v>0</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4762,40 +4754,40 @@
         <v>37</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F38" s="3">
-        <v>266</v>
-      </c>
-      <c r="G38" s="4">
-        <v>24.1818181</v>
+        <v>298</v>
+      </c>
+      <c r="G38" s="6">
+        <v>24.8333333</v>
       </c>
       <c r="H38" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J38" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K38" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38" s="3">
-        <v>3388</v>
+        <v>2966</v>
       </c>
       <c r="M38" s="3">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -4812,7 +4804,7 @@
       <c r="R38" s="3">
         <v>0</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="4">
         <v>0</v>
       </c>
       <c r="T38" s="3">
@@ -4821,7 +4813,7 @@
       <c r="U38" s="3">
         <v>0</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4830,40 +4822,40 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F39" s="3">
-        <v>290</v>
-      </c>
-      <c r="G39" s="4">
-        <v>24.1666666</v>
+        <v>295</v>
+      </c>
+      <c r="G39" s="6">
+        <v>24.5833333</v>
       </c>
       <c r="H39" s="3">
         <v>12</v>
       </c>
       <c r="I39" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K39" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L39" s="3">
-        <v>2531</v>
+        <v>3009</v>
       </c>
       <c r="M39" s="3">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -4880,7 +4872,7 @@
       <c r="R39" s="3">
         <v>0</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="4">
         <v>0</v>
       </c>
       <c r="T39" s="3">
@@ -4889,7 +4881,7 @@
       <c r="U39" s="3">
         <v>0</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4898,41 +4890,41 @@
         <v>39</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F40" s="3">
+        <v>291</v>
+      </c>
+      <c r="G40" s="7">
+        <v>24.25</v>
+      </c>
+      <c r="H40" s="3">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3">
+        <v>29</v>
+      </c>
+      <c r="J40" s="3">
+        <v>8</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3447</v>
+      </c>
+      <c r="M40" s="3">
         <v>135</v>
       </c>
-      <c r="E40" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F40" s="3">
-        <v>288</v>
-      </c>
-      <c r="G40" s="3">
-        <v>24</v>
-      </c>
-      <c r="H40" s="3">
-        <v>12</v>
-      </c>
-      <c r="I40" s="3">
-        <v>25</v>
-      </c>
-      <c r="J40" s="3">
-        <v>7</v>
-      </c>
-      <c r="K40" s="3">
-        <v>3</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2879</v>
-      </c>
-      <c r="M40" s="3">
-        <v>410</v>
-      </c>
       <c r="N40" s="3">
         <v>0</v>
       </c>
@@ -4948,7 +4940,7 @@
       <c r="R40" s="3">
         <v>0</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="4">
         <v>0</v>
       </c>
       <c r="T40" s="3">
@@ -4957,7 +4949,7 @@
       <c r="U40" s="3">
         <v>0</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4966,40 +4958,40 @@
         <v>40</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F41" s="3">
-        <v>288</v>
-      </c>
-      <c r="G41" s="3">
-        <v>24</v>
+        <v>291</v>
+      </c>
+      <c r="G41" s="7">
+        <v>24.25</v>
       </c>
       <c r="H41" s="3">
         <v>12</v>
       </c>
       <c r="I41" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J41" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" s="3">
-        <v>4277</v>
-      </c>
-      <c r="M41" s="5">
-        <v>-177</v>
+        <v>3099</v>
+      </c>
+      <c r="M41" s="3">
+        <v>412</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -5016,7 +5008,7 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="4">
         <v>0</v>
       </c>
       <c r="T41" s="3">
@@ -5025,7 +5017,7 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5034,40 +5026,40 @@
         <v>41</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F42" s="3">
-        <v>286</v>
-      </c>
-      <c r="G42" s="4">
-        <v>23.8333333</v>
+        <v>289</v>
+      </c>
+      <c r="G42" s="6">
+        <v>24.0833333</v>
       </c>
       <c r="H42" s="3">
         <v>12</v>
       </c>
       <c r="I42" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J42" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L42" s="3">
-        <v>3688</v>
-      </c>
-      <c r="M42" s="5">
-        <v>-5</v>
+        <v>2678</v>
+      </c>
+      <c r="M42" s="3">
+        <v>500</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -5084,7 +5076,7 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="4">
         <v>0</v>
       </c>
       <c r="T42" s="3">
@@ -5093,7 +5085,7 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5102,40 +5094,40 @@
         <v>42</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F43" s="3">
-        <v>285</v>
-      </c>
-      <c r="G43" s="7">
-        <v>23.75</v>
+        <v>287</v>
+      </c>
+      <c r="G43" s="6">
+        <v>23.9166666</v>
       </c>
       <c r="H43" s="3">
         <v>12</v>
       </c>
       <c r="I43" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J43" s="3">
         <v>11</v>
       </c>
       <c r="K43" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L43" s="3">
-        <v>2549</v>
+        <v>3333</v>
       </c>
       <c r="M43" s="3">
-        <v>623</v>
+        <v>155</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -5152,7 +5144,7 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="4">
         <v>0</v>
       </c>
       <c r="T43" s="3">
@@ -5161,7 +5153,7 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5170,40 +5162,40 @@
         <v>43</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F44" s="3">
-        <v>284</v>
-      </c>
-      <c r="G44" s="4">
-        <v>23.6666666</v>
+        <v>286</v>
+      </c>
+      <c r="G44" s="6">
+        <v>23.8333333</v>
       </c>
       <c r="H44" s="3">
         <v>12</v>
       </c>
       <c r="I44" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J44" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L44" s="3">
-        <v>3308</v>
-      </c>
-      <c r="M44" s="5">
-        <v>-35</v>
+        <v>2461</v>
+      </c>
+      <c r="M44" s="3">
+        <v>530</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -5220,7 +5212,7 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="4">
         <v>0</v>
       </c>
       <c r="T44" s="3">
@@ -5229,7 +5221,7 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5238,40 +5230,40 @@
         <v>44</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F45" s="3">
-        <v>282</v>
-      </c>
-      <c r="G45" s="6">
-        <v>23.5</v>
+        <v>285</v>
+      </c>
+      <c r="G45" s="7">
+        <v>23.75</v>
       </c>
       <c r="H45" s="3">
         <v>12</v>
       </c>
       <c r="I45" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="3">
-        <v>3289</v>
+        <v>3328</v>
       </c>
       <c r="M45" s="3">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -5288,7 +5280,7 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="4">
         <v>0</v>
       </c>
       <c r="T45" s="3">
@@ -5297,7 +5289,7 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5306,40 +5298,40 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F46" s="3">
-        <v>282</v>
-      </c>
-      <c r="G46" s="6">
-        <v>23.5</v>
+        <v>285</v>
+      </c>
+      <c r="G46" s="7">
+        <v>23.75</v>
       </c>
       <c r="H46" s="3">
         <v>12</v>
       </c>
       <c r="I46" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K46" s="3">
         <v>6</v>
       </c>
       <c r="L46" s="3">
-        <v>2816</v>
+        <v>2878</v>
       </c>
       <c r="M46" s="3">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -5356,7 +5348,7 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="4">
         <v>0</v>
       </c>
       <c r="T46" s="3">
@@ -5365,7 +5357,7 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5374,40 +5366,40 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F47" s="3">
-        <v>257</v>
-      </c>
-      <c r="G47" s="4">
-        <v>23.3636363</v>
+        <v>284</v>
+      </c>
+      <c r="G47" s="6">
+        <v>23.6666666</v>
       </c>
       <c r="H47" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I47" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J47" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="3">
-        <v>3003</v>
+        <v>3189</v>
       </c>
       <c r="M47" s="3">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -5424,7 +5416,7 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="4">
         <v>0</v>
       </c>
       <c r="T47" s="3">
@@ -5433,7 +5425,7 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5442,40 +5434,40 @@
         <v>47</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F48" s="3">
-        <v>279</v>
-      </c>
-      <c r="G48" s="7">
-        <v>23.25</v>
+        <v>277</v>
+      </c>
+      <c r="G48" s="6">
+        <v>23.0833333</v>
       </c>
       <c r="H48" s="3">
         <v>12</v>
       </c>
       <c r="I48" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J48" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K48" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" s="3">
-        <v>3555</v>
+        <v>3111</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -5492,7 +5484,7 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="4">
         <v>0</v>
       </c>
       <c r="T48" s="3">
@@ -5501,7 +5493,7 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V48" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5510,40 +5502,40 @@
         <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F49" s="3">
-        <v>275</v>
-      </c>
-      <c r="G49" s="4">
-        <v>22.9166666</v>
+        <v>277</v>
+      </c>
+      <c r="G49" s="6">
+        <v>23.0833333</v>
       </c>
       <c r="H49" s="3">
         <v>12</v>
       </c>
       <c r="I49" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J49" s="3">
         <v>6</v>
       </c>
       <c r="K49" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L49" s="3">
-        <v>1362</v>
+        <v>2681</v>
       </c>
       <c r="M49" s="3">
-        <v>959</v>
+        <v>433</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -5560,7 +5552,7 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="4">
         <v>0</v>
       </c>
       <c r="T49" s="3">
@@ -5569,7 +5561,7 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="5">
+      <c r="V49" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5578,40 +5570,40 @@
         <v>49</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F50" s="3">
-        <v>273</v>
-      </c>
-      <c r="G50" s="7">
-        <v>22.75</v>
+        <v>274</v>
+      </c>
+      <c r="G50" s="6">
+        <v>22.8333333</v>
       </c>
       <c r="H50" s="3">
         <v>12</v>
       </c>
       <c r="I50" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J50" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K50" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3">
-        <v>2824</v>
+        <v>3641</v>
       </c>
       <c r="M50" s="3">
-        <v>367</v>
+        <v>28</v>
       </c>
       <c r="N50" s="3">
         <v>0</v>
@@ -5628,7 +5620,7 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50" s="4">
         <v>0</v>
       </c>
       <c r="T50" s="3">
@@ -5637,7 +5629,7 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-      <c r="V50" s="5">
+      <c r="V50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5646,13 +5638,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s" s="2">
         <v>25</v>
@@ -5660,26 +5652,26 @@
       <c r="F51" s="3">
         <v>272</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="6">
         <v>22.6666666</v>
       </c>
       <c r="H51" s="3">
         <v>12</v>
       </c>
       <c r="I51" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J51" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K51" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3">
-        <v>3182</v>
+        <v>3255</v>
       </c>
       <c r="M51" s="3">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -5696,7 +5688,7 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-      <c r="S51" s="5">
+      <c r="S51" s="4">
         <v>0</v>
       </c>
       <c r="T51" s="3">
@@ -5705,7 +5697,7 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-      <c r="V51" s="5">
+      <c r="V51" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5714,40 +5706,40 @@
         <v>51</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F52" s="3">
-        <v>269</v>
-      </c>
-      <c r="G52" s="4">
-        <v>22.4166666</v>
+        <v>270</v>
+      </c>
+      <c r="G52" s="5">
+        <v>22.5</v>
       </c>
       <c r="H52" s="3">
         <v>12</v>
       </c>
       <c r="I52" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J52" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K52" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>2348</v>
-      </c>
-      <c r="M52" s="3">
-        <v>542</v>
+        <v>3720</v>
+      </c>
+      <c r="M52" s="4">
+        <v>-84</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -5764,7 +5756,7 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S52" s="4">
         <v>0</v>
       </c>
       <c r="T52" s="3">
@@ -5773,7 +5765,7 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V52" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5782,40 +5774,40 @@
         <v>52</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F53" s="3">
-        <v>267</v>
-      </c>
-      <c r="G53" s="7">
-        <v>22.25</v>
+        <v>266</v>
+      </c>
+      <c r="G53" s="6">
+        <v>22.1666666</v>
       </c>
       <c r="H53" s="3">
         <v>12</v>
       </c>
       <c r="I53" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J53" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53" s="3">
-        <v>2639</v>
+        <v>3307</v>
       </c>
       <c r="M53" s="3">
-        <v>509</v>
+        <v>137</v>
       </c>
       <c r="N53" s="3">
         <v>0</v>
@@ -5832,7 +5824,7 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-      <c r="S53" s="5">
+      <c r="S53" s="4">
         <v>0</v>
       </c>
       <c r="T53" s="3">
@@ -5841,7 +5833,7 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-      <c r="V53" s="5">
+      <c r="V53" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5850,40 +5842,40 @@
         <v>53</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F54" s="3">
-        <v>263</v>
-      </c>
-      <c r="G54" s="4">
-        <v>21.9166666</v>
+        <v>262</v>
+      </c>
+      <c r="G54" s="6">
+        <v>21.8333333</v>
       </c>
       <c r="H54" s="3">
         <v>12</v>
       </c>
       <c r="I54" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J54" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K54" s="3">
         <v>4</v>
       </c>
       <c r="L54" s="3">
-        <v>2844</v>
+        <v>2828</v>
       </c>
       <c r="M54" s="3">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -5900,7 +5892,7 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="5">
+      <c r="S54" s="4">
         <v>0</v>
       </c>
       <c r="T54" s="3">
@@ -5909,7 +5901,7 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-      <c r="V54" s="5">
+      <c r="V54" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5918,40 +5910,40 @@
         <v>54</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F55" s="3">
-        <v>262</v>
-      </c>
-      <c r="G55" s="4">
-        <v>21.8333333</v>
+        <v>261</v>
+      </c>
+      <c r="G55" s="7">
+        <v>21.75</v>
       </c>
       <c r="H55" s="3">
         <v>12</v>
       </c>
       <c r="I55" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J55" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K55" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>2688</v>
-      </c>
-      <c r="M55" s="3">
-        <v>447</v>
+        <v>3495</v>
+      </c>
+      <c r="M55" s="4">
+        <v>-99</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -5968,7 +5960,7 @@
       <c r="R55" s="3">
         <v>0</v>
       </c>
-      <c r="S55" s="5">
+      <c r="S55" s="4">
         <v>0</v>
       </c>
       <c r="T55" s="3">
@@ -5977,7 +5969,7 @@
       <c r="U55" s="3">
         <v>0</v>
       </c>
-      <c r="V55" s="5">
+      <c r="V55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5986,40 +5978,40 @@
         <v>55</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F56" s="3">
-        <v>259</v>
-      </c>
-      <c r="G56" s="4">
-        <v>21.5833333</v>
+        <v>260</v>
+      </c>
+      <c r="G56" s="6">
+        <v>21.6666666</v>
       </c>
       <c r="H56" s="3">
         <v>12</v>
       </c>
       <c r="I56" s="3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J56" s="3">
+        <v>5</v>
+      </c>
+      <c r="K56" s="3">
         <v>9</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
       <c r="L56" s="3">
-        <v>3233</v>
+        <v>1335</v>
       </c>
       <c r="M56" s="3">
-        <v>103</v>
+        <v>986</v>
       </c>
       <c r="N56" s="3">
         <v>0</v>
@@ -6036,7 +6028,7 @@
       <c r="R56" s="3">
         <v>0</v>
       </c>
-      <c r="S56" s="5">
+      <c r="S56" s="4">
         <v>0</v>
       </c>
       <c r="T56" s="3">
@@ -6045,7 +6037,7 @@
       <c r="U56" s="3">
         <v>0</v>
       </c>
-      <c r="V56" s="5">
+      <c r="V56" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6054,40 +6046,40 @@
         <v>56</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F57" s="3">
-        <v>236</v>
-      </c>
-      <c r="G57" s="4">
-        <v>21.4545454</v>
+        <v>258</v>
+      </c>
+      <c r="G57" s="5">
+        <v>21.5</v>
       </c>
       <c r="H57" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J57" s="3">
         <v>9</v>
       </c>
       <c r="K57" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>2643</v>
+        <v>3333</v>
       </c>
       <c r="M57" s="3">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -6104,7 +6096,7 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="5">
+      <c r="S57" s="4">
         <v>0</v>
       </c>
       <c r="T57" s="3">
@@ -6113,7 +6105,7 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="5">
+      <c r="V57" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6122,22 +6114,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F58" s="3">
-        <v>255</v>
-      </c>
-      <c r="G58" s="7">
-        <v>21.25</v>
+        <v>256</v>
+      </c>
+      <c r="G58" s="6">
+        <v>21.3333333</v>
       </c>
       <c r="H58" s="3">
         <v>12</v>
@@ -6146,16 +6138,16 @@
         <v>15</v>
       </c>
       <c r="J58" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K58" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L58" s="3">
-        <v>1901</v>
+        <v>2520</v>
       </c>
       <c r="M58" s="3">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -6172,7 +6164,7 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="5">
+      <c r="S58" s="4">
         <v>0</v>
       </c>
       <c r="T58" s="3">
@@ -6181,7 +6173,7 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="5">
+      <c r="V58" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6190,40 +6182,40 @@
         <v>58</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F59" s="3">
-        <v>248</v>
-      </c>
-      <c r="G59" s="4">
-        <v>20.6666666</v>
+        <v>255</v>
+      </c>
+      <c r="G59" s="7">
+        <v>21.25</v>
       </c>
       <c r="H59" s="3">
         <v>12</v>
       </c>
       <c r="I59" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J59" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L59" s="3">
-        <v>3539</v>
+        <v>2202</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -6240,7 +6232,7 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="5">
+      <c r="S59" s="4">
         <v>0</v>
       </c>
       <c r="T59" s="3">
@@ -6249,7 +6241,7 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="5">
+      <c r="V59" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6258,40 +6250,40 @@
         <v>59</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F60" s="3">
-        <v>227</v>
-      </c>
-      <c r="G60" s="4">
-        <v>20.6363636</v>
+        <v>254</v>
+      </c>
+      <c r="G60" s="6">
+        <v>21.1666666</v>
       </c>
       <c r="H60" s="3">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20</v>
+      </c>
+      <c r="J60" s="3">
         <v>11</v>
       </c>
-      <c r="I60" s="3">
-        <v>10</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
-        <v>10</v>
-      </c>
       <c r="L60" s="3">
-        <v>1648</v>
+        <v>2551</v>
       </c>
       <c r="M60" s="3">
-        <v>555</v>
+        <v>394</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -6308,7 +6300,7 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-      <c r="S60" s="5">
+      <c r="S60" s="4">
         <v>0</v>
       </c>
       <c r="T60" s="3">
@@ -6317,7 +6309,7 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6326,40 +6318,40 @@
         <v>60</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F61" s="3">
-        <v>245</v>
-      </c>
-      <c r="G61" s="4">
-        <v>20.4166666</v>
+        <v>252</v>
+      </c>
+      <c r="G61" s="3">
+        <v>21</v>
       </c>
       <c r="H61" s="3">
         <v>12</v>
       </c>
       <c r="I61" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J61" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>3430</v>
-      </c>
-      <c r="M61" s="5">
-        <v>-84</v>
+        <v>3555</v>
+      </c>
+      <c r="M61" s="4">
+        <v>-119</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -6376,7 +6368,7 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-      <c r="S61" s="5">
+      <c r="S61" s="4">
         <v>0</v>
       </c>
       <c r="T61" s="3">
@@ -6385,7 +6377,7 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-      <c r="V61" s="5">
+      <c r="V61" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6394,40 +6386,40 @@
         <v>61</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F62" s="3">
-        <v>244</v>
-      </c>
-      <c r="G62" s="4">
-        <v>20.3333333</v>
+        <v>251</v>
+      </c>
+      <c r="G62" s="6">
+        <v>20.9166666</v>
       </c>
       <c r="H62" s="3">
         <v>12</v>
       </c>
       <c r="I62" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J62" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K62" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L62" s="3">
-        <v>2934</v>
+        <v>1780</v>
       </c>
       <c r="M62" s="3">
-        <v>122</v>
+        <v>561</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -6444,7 +6436,7 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="5">
+      <c r="S62" s="4">
         <v>0</v>
       </c>
       <c r="T62" s="3">
@@ -6453,7 +6445,7 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V62" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6462,10 +6454,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>201</v>
@@ -6474,28 +6466,28 @@
         <v>25</v>
       </c>
       <c r="F63" s="3">
-        <v>223</v>
-      </c>
-      <c r="G63" s="4">
-        <v>20.2727272</v>
+        <v>251</v>
+      </c>
+      <c r="G63" s="6">
+        <v>20.9166666</v>
       </c>
       <c r="H63" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I63" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K63" s="3">
         <v>3</v>
       </c>
       <c r="L63" s="3">
-        <v>2540</v>
+        <v>2699</v>
       </c>
       <c r="M63" s="3">
-        <v>189</v>
+        <v>390</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
@@ -6512,7 +6504,7 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-      <c r="S63" s="5">
+      <c r="S63" s="4">
         <v>0</v>
       </c>
       <c r="T63" s="3">
@@ -6521,7 +6513,7 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-      <c r="V63" s="5">
+      <c r="V63" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6533,37 +6525,37 @@
         <v>202</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F64" s="3">
-        <v>243</v>
-      </c>
-      <c r="G64" s="7">
-        <v>20.25</v>
+        <v>251</v>
+      </c>
+      <c r="G64" s="6">
+        <v>20.9166666</v>
       </c>
       <c r="H64" s="3">
         <v>12</v>
       </c>
       <c r="I64" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J64" s="3">
+        <v>6</v>
+      </c>
+      <c r="K64" s="3">
         <v>7</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
       <c r="L64" s="3">
-        <v>2968</v>
+        <v>1933</v>
       </c>
       <c r="M64" s="3">
-        <v>118</v>
+        <v>499</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
@@ -6580,7 +6572,7 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-      <c r="S64" s="5">
+      <c r="S64" s="4">
         <v>0</v>
       </c>
       <c r="T64" s="3">
@@ -6589,7 +6581,7 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-      <c r="V64" s="5">
+      <c r="V64" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6598,41 +6590,41 @@
         <v>64</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F65" s="3">
+        <v>250</v>
+      </c>
+      <c r="G65" s="6">
+        <v>20.8333333</v>
+      </c>
+      <c r="H65" s="3">
+        <v>12</v>
+      </c>
+      <c r="I65" s="3">
+        <v>22</v>
+      </c>
+      <c r="J65" s="3">
+        <v>9</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
+      <c r="L65" s="3">
+        <v>2970</v>
+      </c>
+      <c r="M65" s="3">
         <v>204</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F65" s="3">
-        <v>242</v>
-      </c>
-      <c r="G65" s="4">
-        <v>20.1666666</v>
-      </c>
-      <c r="H65" s="3">
-        <v>12</v>
-      </c>
-      <c r="I65" s="3">
-        <v>17</v>
-      </c>
-      <c r="J65" s="3">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3">
-        <v>7</v>
-      </c>
-      <c r="L65" s="3">
-        <v>2184</v>
-      </c>
-      <c r="M65" s="3">
-        <v>455</v>
-      </c>
       <c r="N65" s="3">
         <v>0</v>
       </c>
@@ -6648,7 +6640,7 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-      <c r="S65" s="5">
+      <c r="S65" s="4">
         <v>0</v>
       </c>
       <c r="T65" s="3">
@@ -6657,7 +6649,7 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V65" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6666,40 +6658,40 @@
         <v>65</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F66" s="3">
-        <v>242</v>
-      </c>
-      <c r="G66" s="4">
-        <v>20.1666666</v>
+        <v>246</v>
+      </c>
+      <c r="G66" s="5">
+        <v>20.5</v>
       </c>
       <c r="H66" s="3">
         <v>12</v>
       </c>
       <c r="I66" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J66" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="3">
-        <v>2924</v>
+        <v>2444</v>
       </c>
       <c r="M66" s="3">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -6716,7 +6708,7 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="S66" s="5">
+      <c r="S66" s="4">
         <v>0</v>
       </c>
       <c r="T66" s="3">
@@ -6725,7 +6717,7 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-      <c r="V66" s="5">
+      <c r="V66" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6734,22 +6726,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E67" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F67" s="3">
-        <v>240</v>
-      </c>
-      <c r="G67" s="3">
-        <v>20</v>
+        <v>245</v>
+      </c>
+      <c r="G67" s="6">
+        <v>20.4166666</v>
       </c>
       <c r="H67" s="3">
         <v>12</v>
@@ -6758,16 +6750,16 @@
         <v>23</v>
       </c>
       <c r="J67" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3">
-        <v>2811</v>
+        <v>3048</v>
       </c>
       <c r="M67" s="3">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N67" s="3">
         <v>0</v>
@@ -6784,7 +6776,7 @@
       <c r="R67" s="3">
         <v>0</v>
       </c>
-      <c r="S67" s="5">
+      <c r="S67" s="4">
         <v>0</v>
       </c>
       <c r="T67" s="3">
@@ -6793,7 +6785,7 @@
       <c r="U67" s="3">
         <v>0</v>
       </c>
-      <c r="V67" s="5">
+      <c r="V67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6802,22 +6794,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F68" s="3">
-        <v>239</v>
-      </c>
-      <c r="G68" s="4">
-        <v>19.9166666</v>
+        <v>243</v>
+      </c>
+      <c r="G68" s="7">
+        <v>20.25</v>
       </c>
       <c r="H68" s="3">
         <v>12</v>
@@ -6826,16 +6818,16 @@
         <v>23</v>
       </c>
       <c r="J68" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
       </c>
       <c r="L68" s="3">
-        <v>3059</v>
-      </c>
-      <c r="M68" s="3">
-        <v>119</v>
+        <v>3335</v>
+      </c>
+      <c r="M68" s="4">
+        <v>-39</v>
       </c>
       <c r="N68" s="3">
         <v>0</v>
@@ -6852,7 +6844,7 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-      <c r="S68" s="5">
+      <c r="S68" s="4">
         <v>0</v>
       </c>
       <c r="T68" s="3">
@@ -6861,7 +6853,7 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V68" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6870,40 +6862,40 @@
         <v>68</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F69" s="3">
-        <v>235</v>
-      </c>
-      <c r="G69" s="4">
-        <v>19.5833333</v>
+        <v>243</v>
+      </c>
+      <c r="G69" s="7">
+        <v>20.25</v>
       </c>
       <c r="H69" s="3">
         <v>12</v>
       </c>
       <c r="I69" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J69" s="3">
         <v>11</v>
       </c>
       <c r="K69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>3290</v>
+        <v>2962</v>
       </c>
       <c r="M69" s="3">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="N69" s="3">
         <v>0</v>
@@ -6920,7 +6912,7 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69" s="4">
         <v>0</v>
       </c>
       <c r="T69" s="3">
@@ -6929,7 +6921,7 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V69" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6938,10 +6930,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>220</v>
@@ -6950,10 +6942,10 @@
         <v>25</v>
       </c>
       <c r="F70" s="3">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G70" s="6">
-        <v>19.5</v>
+        <v>19.9166666</v>
       </c>
       <c r="H70" s="3">
         <v>12</v>
@@ -6962,16 +6954,16 @@
         <v>23</v>
       </c>
       <c r="J70" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>3072</v>
+        <v>3513</v>
       </c>
       <c r="M70" s="3">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -6988,7 +6980,7 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S70" s="4">
         <v>0</v>
       </c>
       <c r="T70" s="3">
@@ -6997,7 +6989,7 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-      <c r="V70" s="5">
+      <c r="V70" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7009,37 +7001,37 @@
         <v>221</v>
       </c>
       <c r="C71" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D71" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="D71" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="E71" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F71" s="3">
-        <v>213</v>
-      </c>
-      <c r="G71" s="4">
-        <v>19.3636363</v>
+        <v>239</v>
+      </c>
+      <c r="G71" s="6">
+        <v>19.9166666</v>
       </c>
       <c r="H71" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I71" s="3">
         <v>22</v>
       </c>
       <c r="J71" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K71" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" s="3">
-        <v>2860</v>
-      </c>
-      <c r="M71" s="5">
-        <v>-8</v>
+        <v>2867</v>
+      </c>
+      <c r="M71" s="3">
+        <v>248</v>
       </c>
       <c r="N71" s="3">
         <v>0</v>
@@ -7056,7 +7048,7 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-      <c r="S71" s="5">
+      <c r="S71" s="4">
         <v>0</v>
       </c>
       <c r="T71" s="3">
@@ -7065,7 +7057,7 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-      <c r="V71" s="5">
+      <c r="V71" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7074,40 +7066,40 @@
         <v>71</v>
       </c>
       <c r="B72" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="E72" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F72" s="3">
-        <v>231</v>
-      </c>
-      <c r="G72" s="7">
-        <v>19.25</v>
+        <v>199</v>
+      </c>
+      <c r="G72" s="5">
+        <v>19.9</v>
       </c>
       <c r="H72" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I72" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J72" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K72" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L72" s="3">
-        <v>2627</v>
+        <v>800</v>
       </c>
       <c r="M72" s="3">
-        <v>245</v>
+        <v>950</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -7124,7 +7116,7 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="5">
+      <c r="S72" s="4">
         <v>0</v>
       </c>
       <c r="T72" s="3">
@@ -7133,7 +7125,7 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-      <c r="V72" s="5">
+      <c r="V72" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7142,40 +7134,40 @@
         <v>72</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E73" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F73" s="3">
-        <v>224</v>
-      </c>
-      <c r="G73" s="4">
-        <v>18.6666666</v>
+        <v>234</v>
+      </c>
+      <c r="G73" s="5">
+        <v>19.5</v>
       </c>
       <c r="H73" s="3">
         <v>12</v>
       </c>
       <c r="I73" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J73" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="3">
-        <v>3215</v>
-      </c>
-      <c r="M73" s="5">
-        <v>-66</v>
+        <v>3103</v>
+      </c>
+      <c r="M73" s="4">
+        <v>-50</v>
       </c>
       <c r="N73" s="3">
         <v>0</v>
@@ -7192,7 +7184,7 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-      <c r="S73" s="5">
+      <c r="S73" s="4">
         <v>0</v>
       </c>
       <c r="T73" s="3">
@@ -7201,7 +7193,7 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-      <c r="V73" s="5">
+      <c r="V73" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7210,40 +7202,40 @@
         <v>73</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F74" s="3">
         <v>230</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F74" s="3">
-        <v>220</v>
-      </c>
-      <c r="G74" s="4">
-        <v>18.3333333</v>
+      <c r="G74" s="6">
+        <v>19.1666666</v>
       </c>
       <c r="H74" s="3">
         <v>12</v>
       </c>
       <c r="I74" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J74" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
       </c>
       <c r="L74" s="3">
-        <v>3107</v>
-      </c>
-      <c r="M74" s="5">
-        <v>-134</v>
+        <v>3111</v>
+      </c>
+      <c r="M74" s="4">
+        <v>-98</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
@@ -7260,7 +7252,7 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-      <c r="S74" s="5">
+      <c r="S74" s="4">
         <v>0</v>
       </c>
       <c r="T74" s="3">
@@ -7269,7 +7261,7 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-      <c r="V74" s="5">
+      <c r="V74" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7278,40 +7270,40 @@
         <v>74</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D75" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="E75" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F75" s="3">
-        <v>219</v>
-      </c>
-      <c r="G75" s="7">
-        <v>18.25</v>
+        <v>229</v>
+      </c>
+      <c r="G75" s="6">
+        <v>19.0833333</v>
       </c>
       <c r="H75" s="3">
         <v>12</v>
       </c>
       <c r="I75" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J75" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="3">
-        <v>2963</v>
-      </c>
-      <c r="M75" s="5">
-        <v>-19</v>
+        <v>2713</v>
+      </c>
+      <c r="M75" s="3">
+        <v>148</v>
       </c>
       <c r="N75" s="3">
         <v>0</v>
@@ -7328,7 +7320,7 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-      <c r="S75" s="5">
+      <c r="S75" s="4">
         <v>0</v>
       </c>
       <c r="T75" s="3">
@@ -7337,7 +7329,7 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-      <c r="V75" s="5">
+      <c r="V75" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7346,40 +7338,40 @@
         <v>75</v>
       </c>
       <c r="B76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D76" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="E76" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F76" s="3">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G76" s="7">
-        <v>18.25</v>
+        <v>18.75</v>
       </c>
       <c r="H76" s="3">
         <v>12</v>
       </c>
       <c r="I76" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J76" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="3">
-        <v>2970</v>
-      </c>
-      <c r="M76" s="5">
-        <v>-33</v>
+        <v>2817</v>
+      </c>
+      <c r="M76" s="3">
+        <v>137</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -7396,7 +7388,7 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-      <c r="S76" s="5">
+      <c r="S76" s="4">
         <v>0</v>
       </c>
       <c r="T76" s="3">
@@ -7405,7 +7397,7 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-      <c r="V76" s="5">
+      <c r="V76" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7414,40 +7406,40 @@
         <v>76</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D77" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="E77" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F77" s="3">
-        <v>216</v>
-      </c>
-      <c r="G77" s="3">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="G77" s="6">
+        <v>17.8333333</v>
       </c>
       <c r="H77" s="3">
         <v>12</v>
       </c>
       <c r="I77" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J77" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K77" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77" s="3">
-        <v>2176</v>
+        <v>2335</v>
       </c>
       <c r="M77" s="3">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="N77" s="3">
         <v>0</v>
@@ -7464,7 +7456,7 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-      <c r="S77" s="5">
+      <c r="S77" s="4">
         <v>0</v>
       </c>
       <c r="T77" s="3">
@@ -7473,7 +7465,7 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-      <c r="V77" s="5">
+      <c r="V77" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7482,40 +7474,40 @@
         <v>77</v>
       </c>
       <c r="B78" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="D78" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="D78" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="E78" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F78" s="3">
-        <v>215</v>
-      </c>
-      <c r="G78" s="4">
-        <v>17.9166666</v>
+        <v>210</v>
+      </c>
+      <c r="G78" s="5">
+        <v>17.5</v>
       </c>
       <c r="H78" s="3">
         <v>12</v>
       </c>
       <c r="I78" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J78" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K78" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78" s="3">
-        <v>2584</v>
-      </c>
-      <c r="M78" s="3">
-        <v>103</v>
+        <v>2982</v>
+      </c>
+      <c r="M78" s="4">
+        <v>-18</v>
       </c>
       <c r="N78" s="3">
         <v>0</v>
@@ -7532,7 +7524,7 @@
       <c r="R78" s="3">
         <v>0</v>
       </c>
-      <c r="S78" s="5">
+      <c r="S78" s="4">
         <v>0</v>
       </c>
       <c r="T78" s="3">
@@ -7541,7 +7533,7 @@
       <c r="U78" s="3">
         <v>0</v>
       </c>
-      <c r="V78" s="5">
+      <c r="V78" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7550,22 +7542,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C79" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="D79" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="D79" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="E79" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F79" s="3">
-        <v>204</v>
-      </c>
-      <c r="G79" s="3">
-        <v>17</v>
+        <v>206</v>
+      </c>
+      <c r="G79" s="6">
+        <v>17.1666666</v>
       </c>
       <c r="H79" s="3">
         <v>12</v>
@@ -7574,16 +7566,16 @@
         <v>21</v>
       </c>
       <c r="J79" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
       </c>
       <c r="L79" s="3">
-        <v>2801</v>
-      </c>
-      <c r="M79" s="5">
-        <v>-67</v>
+        <v>3045</v>
+      </c>
+      <c r="M79" s="4">
+        <v>-80</v>
       </c>
       <c r="N79" s="3">
         <v>0</v>
@@ -7600,7 +7592,7 @@
       <c r="R79" s="3">
         <v>0</v>
       </c>
-      <c r="S79" s="5">
+      <c r="S79" s="4">
         <v>0</v>
       </c>
       <c r="T79" s="3">
@@ -7609,7 +7601,7 @@
       <c r="U79" s="3">
         <v>0</v>
       </c>
-      <c r="V79" s="5">
+      <c r="V79" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7618,10 +7610,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>247</v>
@@ -7630,28 +7622,28 @@
         <v>25</v>
       </c>
       <c r="F80" s="3">
-        <v>201</v>
-      </c>
-      <c r="G80" s="7">
-        <v>16.75</v>
+        <v>203</v>
+      </c>
+      <c r="G80" s="6">
+        <v>16.9166666</v>
       </c>
       <c r="H80" s="3">
         <v>12</v>
       </c>
       <c r="I80" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J80" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>3028</v>
-      </c>
-      <c r="M80" s="5">
-        <v>-100</v>
+        <v>2900</v>
+      </c>
+      <c r="M80" s="4">
+        <v>-127</v>
       </c>
       <c r="N80" s="3">
         <v>0</v>
@@ -7668,7 +7660,7 @@
       <c r="R80" s="3">
         <v>0</v>
       </c>
-      <c r="S80" s="5">
+      <c r="S80" s="4">
         <v>0</v>
       </c>
       <c r="T80" s="3">
@@ -7677,7 +7669,7 @@
       <c r="U80" s="3">
         <v>0</v>
       </c>
-      <c r="V80" s="5">
+      <c r="V80" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7689,37 +7681,37 @@
         <v>248</v>
       </c>
       <c r="C81" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D81" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="D81" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="E81" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F81" s="3">
-        <v>194</v>
-      </c>
-      <c r="G81" s="4">
-        <v>16.1666666</v>
+        <v>202</v>
+      </c>
+      <c r="G81" s="6">
+        <v>16.8333333</v>
       </c>
       <c r="H81" s="3">
         <v>12</v>
       </c>
       <c r="I81" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="3">
-        <v>2770</v>
-      </c>
-      <c r="M81" s="5">
-        <v>-105</v>
+        <v>2827</v>
+      </c>
+      <c r="M81" s="4">
+        <v>-57</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -7736,7 +7728,7 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="5">
+      <c r="S81" s="4">
         <v>0</v>
       </c>
       <c r="T81" s="3">
@@ -7745,7 +7737,7 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-      <c r="V81" s="5">
+      <c r="V81" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7754,40 +7746,40 @@
         <v>81</v>
       </c>
       <c r="B82" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="E82" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F82" s="3">
-        <v>190</v>
-      </c>
-      <c r="G82" s="4">
-        <v>15.8333333</v>
+        <v>201</v>
+      </c>
+      <c r="G82" s="7">
+        <v>16.75</v>
       </c>
       <c r="H82" s="3">
         <v>12</v>
       </c>
       <c r="I82" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J82" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K82" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" s="3">
-        <v>2896</v>
-      </c>
-      <c r="M82" s="5">
-        <v>-20</v>
+        <v>2139</v>
+      </c>
+      <c r="M82" s="3">
+        <v>355</v>
       </c>
       <c r="N82" s="3">
         <v>0</v>
@@ -7804,7 +7796,7 @@
       <c r="R82" s="3">
         <v>0</v>
       </c>
-      <c r="S82" s="5">
+      <c r="S82" s="4">
         <v>0</v>
       </c>
       <c r="T82" s="3">
@@ -7813,7 +7805,7 @@
       <c r="U82" s="3">
         <v>0</v>
       </c>
-      <c r="V82" s="5">
+      <c r="V82" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7822,40 +7814,40 @@
         <v>82</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="D83" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="E83" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F83" s="3">
-        <v>144</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12</v>
+        <v>199</v>
+      </c>
+      <c r="G83" s="6">
+        <v>16.5833333</v>
       </c>
       <c r="H83" s="3">
         <v>12</v>
       </c>
       <c r="I83" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J83" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>2163</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2</v>
+        <v>2932</v>
+      </c>
+      <c r="M83" s="4">
+        <v>-97</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -7872,7 +7864,7 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="5">
+      <c r="S83" s="4">
         <v>0</v>
       </c>
       <c r="T83" s="3">
@@ -7881,7 +7873,7 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="5">
+      <c r="V83" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7890,40 +7882,40 @@
         <v>83</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="E84" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F84" s="3">
-        <v>135</v>
-      </c>
-      <c r="G84" s="7">
-        <v>11.25</v>
+        <v>196</v>
+      </c>
+      <c r="G84" s="6">
+        <v>16.3333333</v>
       </c>
       <c r="H84" s="3">
         <v>12</v>
       </c>
       <c r="I84" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J84" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K84" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L84" s="3">
-        <v>1100</v>
+        <v>752</v>
       </c>
       <c r="M84" s="3">
-        <v>360</v>
+        <v>851</v>
       </c>
       <c r="N84" s="3">
         <v>0</v>
@@ -7940,7 +7932,7 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-      <c r="S84" s="5">
+      <c r="S84" s="4">
         <v>0</v>
       </c>
       <c r="T84" s="3">
@@ -7949,7 +7941,7 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-      <c r="V84" s="5">
+      <c r="V84" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7958,40 +7950,40 @@
         <v>84</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E85" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F85" s="3">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="G85" s="6">
-        <v>10.5</v>
+        <v>16.0833333</v>
       </c>
       <c r="H85" s="3">
         <v>12</v>
       </c>
       <c r="I85" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J85" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K85" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L85" s="3">
-        <v>513</v>
-      </c>
-      <c r="M85" s="3">
-        <v>517</v>
+        <v>2588</v>
+      </c>
+      <c r="M85" s="4">
+        <v>-81</v>
       </c>
       <c r="N85" s="3">
         <v>0</v>
@@ -8008,7 +8000,7 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-      <c r="S85" s="5">
+      <c r="S85" s="4">
         <v>0</v>
       </c>
       <c r="T85" s="3">
@@ -8017,7 +8009,7 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-      <c r="V85" s="5">
+      <c r="V85" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8026,40 +8018,40 @@
         <v>85</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E86" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F86" s="3">
-        <v>92</v>
-      </c>
-      <c r="G86" s="4">
-        <v>7.6666666</v>
+        <v>185</v>
+      </c>
+      <c r="G86" s="6">
+        <v>15.4166666</v>
       </c>
       <c r="H86" s="3">
         <v>12</v>
       </c>
       <c r="I86" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J86" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" s="3">
-        <v>997</v>
+        <v>2264</v>
       </c>
       <c r="M86" s="3">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="N86" s="3">
         <v>0</v>
@@ -8076,7 +8068,7 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-      <c r="S86" s="5">
+      <c r="S86" s="4">
         <v>0</v>
       </c>
       <c r="T86" s="3">
@@ -8085,7 +8077,7 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-      <c r="V86" s="5">
+      <c r="V86" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8094,40 +8086,40 @@
         <v>86</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E87" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F87" s="3">
-        <v>92</v>
-      </c>
-      <c r="G87" s="4">
-        <v>7.6666666</v>
+        <v>149</v>
+      </c>
+      <c r="G87" s="6">
+        <v>13.5454545</v>
       </c>
       <c r="H87" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J87" s="3">
         <v>4</v>
       </c>
       <c r="K87" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L87" s="3">
-        <v>994</v>
+        <v>1182</v>
       </c>
       <c r="M87" s="3">
-        <v>158</v>
+        <v>407</v>
       </c>
       <c r="N87" s="3">
         <v>0</v>
@@ -8144,7 +8136,7 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-      <c r="S87" s="5">
+      <c r="S87" s="4">
         <v>0</v>
       </c>
       <c r="T87" s="3">
@@ -8153,7 +8145,7 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-      <c r="V87" s="5">
+      <c r="V87" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8162,40 +8154,40 @@
         <v>87</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E88" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F88" s="3">
-        <v>75</v>
-      </c>
-      <c r="G88" s="4">
-        <v>6.8181818</v>
+        <v>148</v>
+      </c>
+      <c r="G88" s="6">
+        <v>12.3333333</v>
       </c>
       <c r="H88" s="3">
+        <v>12</v>
+      </c>
+      <c r="I88" s="3">
         <v>11</v>
       </c>
-      <c r="I88" s="3">
-        <v>3</v>
-      </c>
       <c r="J88" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K88" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L88" s="3">
-        <v>620</v>
+        <v>1318</v>
       </c>
       <c r="M88" s="3">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="N88" s="3">
         <v>0</v>
@@ -8212,7 +8204,7 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-      <c r="S88" s="5">
+      <c r="S88" s="4">
         <v>0</v>
       </c>
       <c r="T88" s="3">
@@ -8221,7 +8213,7 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-      <c r="V88" s="5">
+      <c r="V88" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8230,46 +8222,46 @@
         <v>88</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="D89" t="s" s="2">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="E89" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F89" s="3">
-        <v>80</v>
-      </c>
-      <c r="G89" s="4">
-        <v>6.6666666</v>
+        <v>134</v>
+      </c>
+      <c r="G89" s="6">
+        <v>11.1666666</v>
       </c>
       <c r="H89" s="3">
         <v>12</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K89" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="M89" s="3">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="N89" s="3">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -8280,7 +8272,7 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="5">
+      <c r="S89" s="4">
         <v>0</v>
       </c>
       <c r="T89" s="3">
@@ -8289,7 +8281,7 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="5">
+      <c r="V89" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8298,40 +8290,40 @@
         <v>89</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="D90" t="s" s="2">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F90" s="3">
-        <v>64</v>
-      </c>
-      <c r="G90" s="4">
-        <v>5.3333333</v>
+        <v>115</v>
+      </c>
+      <c r="G90" s="6">
+        <v>9.5833333</v>
       </c>
       <c r="H90" s="3">
         <v>12</v>
       </c>
       <c r="I90" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J90" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
       </c>
       <c r="L90" s="3">
-        <v>740</v>
+        <v>1444</v>
       </c>
       <c r="M90" s="3">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N90" s="3">
         <v>0</v>
@@ -8348,7 +8340,7 @@
       <c r="R90" s="3">
         <v>0</v>
       </c>
-      <c r="S90" s="5">
+      <c r="S90" s="4">
         <v>0</v>
       </c>
       <c r="T90" s="3">
@@ -8357,7 +8349,7 @@
       <c r="U90" s="3">
         <v>0</v>
       </c>
-      <c r="V90" s="5">
+      <c r="V90" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8366,41 +8358,41 @@
         <v>90</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D91" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="D91" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="E91" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F91" s="3">
+        <v>114</v>
+      </c>
+      <c r="G91" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3">
+        <v>11</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1444</v>
+      </c>
+      <c r="M91" s="3">
         <v>44</v>
       </c>
-      <c r="G91" s="4">
-        <v>3.6666666</v>
-      </c>
-      <c r="H91" s="3">
-        <v>12</v>
-      </c>
-      <c r="I91" s="3">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>573</v>
-      </c>
-      <c r="M91" s="3">
-        <v>27</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -8416,7 +8408,7 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="5">
+      <c r="S91" s="4">
         <v>0</v>
       </c>
       <c r="T91" s="3">
@@ -8425,7 +8417,7 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="5">
+      <c r="V91" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8434,40 +8426,40 @@
         <v>91</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F92" s="3">
-        <v>38</v>
-      </c>
-      <c r="G92" s="4">
-        <v>3.1666666</v>
+        <v>110</v>
+      </c>
+      <c r="G92" s="6">
+        <v>9.166666599999999</v>
       </c>
       <c r="H92" s="3">
         <v>12</v>
       </c>
       <c r="I92" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J92" s="3">
+        <v>3</v>
+      </c>
+      <c r="K92" s="3">
         <v>2</v>
       </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
       <c r="L92" s="3">
-        <v>516</v>
+        <v>907</v>
       </c>
       <c r="M92" s="3">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="N92" s="3">
         <v>0</v>
@@ -8484,7 +8476,7 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-      <c r="S92" s="5">
+      <c r="S92" s="4">
         <v>0</v>
       </c>
       <c r="T92" s="3">
@@ -8493,7 +8485,7 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-      <c r="V92" s="5">
+      <c r="V92" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8502,46 +8494,46 @@
         <v>92</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F93" s="3">
-        <v>19</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1.5833333</v>
+        <v>109</v>
+      </c>
+      <c r="G93" s="6">
+        <v>9.0833333</v>
       </c>
       <c r="H93" s="3">
         <v>12</v>
       </c>
       <c r="I93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L93" s="3">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M93" s="3">
         <v>0</v>
       </c>
       <c r="N93" s="3">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="O93" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="P93" s="3">
         <v>0</v>
@@ -8552,7 +8544,7 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-      <c r="S93" s="5">
+      <c r="S93" s="4">
         <v>0</v>
       </c>
       <c r="T93" s="3">
@@ -8561,7 +8553,7 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-      <c r="V93" s="5">
+      <c r="V93" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8570,46 +8562,46 @@
         <v>93</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F94" s="3">
-        <v>13</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.0833333</v>
+        <v>40</v>
+      </c>
+      <c r="G94" s="6">
+        <v>3.3333333</v>
       </c>
       <c r="H94" s="3">
         <v>12</v>
       </c>
       <c r="I94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" s="3">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -8620,7 +8612,7 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="5">
+      <c r="S94" s="4">
         <v>0</v>
       </c>
       <c r="T94" s="3">
@@ -8629,7 +8621,7 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="5">
+      <c r="V94" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8638,40 +8630,40 @@
         <v>94</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s" s="2">
         <v>25</v>
       </c>
       <c r="F95" s="3">
-        <v>11</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="G95" s="6">
+        <v>3.1666666</v>
       </c>
       <c r="H95" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I95" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" s="3">
         <v>0</v>
       </c>
       <c r="L95" s="3">
-        <v>160</v>
+        <v>487</v>
       </c>
       <c r="M95" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N95" s="3">
         <v>0</v>
@@ -8688,7 +8680,7 @@
       <c r="R95" s="3">
         <v>0</v>
       </c>
-      <c r="S95" s="5">
+      <c r="S95" s="4">
         <v>0</v>
       </c>
       <c r="T95" s="3">
@@ -8697,7 +8689,7 @@
       <c r="U95" s="3">
         <v>0</v>
       </c>
-      <c r="V95" s="5">
+      <c r="V95" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8706,14 +8698,14 @@
         <v>95</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="D96" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="D96" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="E96" t="s" s="2">
         <v>25</v>
       </c>
@@ -8756,7 +8748,7 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-      <c r="S96" s="5">
+      <c r="S96" s="4">
         <v>0</v>
       </c>
       <c r="T96" s="3">
@@ -8765,75 +8757,7 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-      <c r="V96" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="17" customHeight="1">
-      <c r="A97" s="3">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="E97" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
-        <v>0</v>
-      </c>
-      <c r="L97" s="3">
-        <v>0</v>
-      </c>
-      <c r="M97" s="3">
-        <v>0</v>
-      </c>
-      <c r="N97" s="3">
-        <v>0</v>
-      </c>
-      <c r="O97" s="3">
-        <v>0</v>
-      </c>
-      <c r="P97" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>0</v>
-      </c>
-      <c r="R97" s="3">
-        <v>0</v>
-      </c>
-      <c r="S97" s="5">
-        <v>0</v>
-      </c>
-      <c r="T97" s="3">
-        <v>0</v>
-      </c>
-      <c r="U97" s="3">
-        <v>0</v>
-      </c>
-      <c r="V97" s="5">
+      <c r="V96" s="4">
         <v>0</v>
       </c>
     </row>
